--- a/DATABASE/SCHOOLS.xlsx
+++ b/DATABASE/SCHOOLS.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MEO G L PURAM\Desktop\MANDAL PROFILES\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6846666A-C70E-48AA-B9CF-951FF40C826A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -25,7 +19,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -677,7 +671,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1360,7 +1354,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="MEO G L PURAM" refreshedDate="44875.548561226853" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="179" xr:uid="{00000000-000A-0000-FFFF-FFFF0F000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="MEO G L PURAM" refreshedDate="44875.548561226853" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="179">
   <cacheSource type="worksheet">
     <worksheetSource ref="A2:I181" sheet="EMS____02_11_2022_12_33_46_PM_R"/>
   </cacheSource>
@@ -3578,7 +3572,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B191" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
@@ -4381,7 +4375,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:F18" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
@@ -4730,7 +4724,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5552F6AB-B099-4CD6-94F2-C2A122C5C308}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:F13" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
@@ -4877,7 +4871,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -4929,7 +4923,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -5123,14 +5117,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:B191"/>
   <sheetViews>
     <sheetView topLeftCell="A133" workbookViewId="0">
@@ -6661,7 +6655,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6924,7 +6918,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58398DCD-7546-4DEC-9D34-67FAA6057E01}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7115,14 +7109,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:L181"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A127" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C161" sqref="C161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12911,8 +12905,8 @@
       <c r="L181" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:L181" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:I181">
+  <autoFilter ref="A2:L181"/>
+  <sortState ref="B3:I181">
     <sortCondition ref="D3:D181"/>
     <sortCondition ref="E3:E181"/>
   </sortState>

--- a/DATABASE/SCHOOLS.xlsx
+++ b/DATABASE/SCHOOLS.xlsx
@@ -5117,7 +5117,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -7115,8 +7115,8 @@
   </sheetPr>
   <dimension ref="A1:L181"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A127" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C161" sqref="C161"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:E157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/DATABASE/SCHOOLS.xlsx
+++ b/DATABASE/SCHOOLS.xlsx
@@ -5117,7 +5117,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -7116,7 +7116,7 @@
   <dimension ref="A1:L181"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:E157"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/DATABASE/SCHOOLS.xlsx
+++ b/DATABASE/SCHOOLS.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\docs\DATABASE\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AD4BF6D-3CE1-4507-94F6-2EF11AC20A83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -19,7 +25,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="1" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -671,7 +677,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1354,7 +1360,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="MEO G L PURAM" refreshedDate="44875.548561226853" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="179">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="MEO G L PURAM" refreshedDate="44875.548561226853" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="179" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A2:I181" sheet="EMS____02_11_2022_12_33_46_PM_R"/>
   </cacheSource>
@@ -3572,7 +3578,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B191" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
@@ -4375,7 +4381,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:F18" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
@@ -4724,7 +4730,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:F13" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
@@ -4871,7 +4877,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -4923,7 +4929,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -5117,14 +5123,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:B191"/>
   <sheetViews>
     <sheetView topLeftCell="A133" workbookViewId="0">
@@ -6655,7 +6661,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6918,7 +6924,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A3:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7109,14 +7115,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:L181"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A146" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7129,6 +7135,7 @@
     <col min="6" max="7" width="9.28515625" style="11" customWidth="1"/>
     <col min="8" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="57.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="36" x14ac:dyDescent="0.55000000000000004">
@@ -7204,7 +7211,10 @@
       <c r="I3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="1"/>
+      <c r="J3" s="1" t="str">
+        <f>C3&amp;"-"&amp;B3</f>
+        <v>MPPS KAPPAKALLU-28120200104</v>
+      </c>
       <c r="K3" s="1"/>
       <c r="L3" s="4"/>
     </row>
@@ -7236,7 +7246,10 @@
       <c r="I4" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="1"/>
+      <c r="J4" s="1" t="str">
+        <f t="shared" ref="J4:J67" si="0">C4&amp;"-"&amp;B4</f>
+        <v>MPPS DOLUKONA-28120200801</v>
+      </c>
       <c r="K4" s="1"/>
       <c r="L4" s="4"/>
     </row>
@@ -7268,7 +7281,10 @@
       <c r="I5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="1"/>
+      <c r="J5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MPPS TENKASINGI-28120201401</v>
+      </c>
       <c r="K5" s="1"/>
       <c r="L5" s="4"/>
     </row>
@@ -7300,7 +7316,10 @@
       <c r="I6" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="1"/>
+      <c r="J6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MPPS KOSANGIBADRA-28120201601</v>
+      </c>
       <c r="K6" s="1"/>
       <c r="L6" s="4"/>
     </row>
@@ -7332,7 +7351,10 @@
       <c r="I7" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="1"/>
+      <c r="J7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MPPS SANDHIGUDA-28120201708</v>
+      </c>
       <c r="K7" s="1"/>
       <c r="L7" s="4"/>
     </row>
@@ -7364,7 +7386,10 @@
       <c r="I8" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="1"/>
+      <c r="J8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MPPS PATHA NIGARAM-28120202006</v>
+      </c>
       <c r="K8" s="1"/>
       <c r="L8" s="4"/>
     </row>
@@ -7396,7 +7421,10 @@
       <c r="I9" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J9" s="1"/>
+      <c r="J9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MPPS GORATI-28120202401</v>
+      </c>
       <c r="K9" s="1"/>
       <c r="L9" s="4"/>
     </row>
@@ -7428,7 +7456,10 @@
       <c r="I10" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J10" s="1"/>
+      <c r="J10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MPPS MANGALAPURAM-28120202901</v>
+      </c>
       <c r="K10" s="1"/>
       <c r="L10" s="4"/>
     </row>
@@ -7460,7 +7491,10 @@
       <c r="I11" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="1"/>
+      <c r="J11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MPPS PUTTAGUDA-28120203403</v>
+      </c>
       <c r="K11" s="1"/>
       <c r="L11" s="4"/>
     </row>
@@ -7492,7 +7526,10 @@
       <c r="I12" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J12" s="1"/>
+      <c r="J12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MPPS ADDAMGUDA-28120203501</v>
+      </c>
       <c r="K12" s="1"/>
       <c r="L12" s="4"/>
     </row>
@@ -7524,7 +7561,10 @@
       <c r="I13" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J13" s="1"/>
+      <c r="J13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MPPS KANNAYYAGUDA-28120203701</v>
+      </c>
       <c r="K13" s="1"/>
       <c r="L13" s="4"/>
     </row>
@@ -7556,7 +7596,10 @@
       <c r="I14" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J14" s="1"/>
+      <c r="J14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MPPS IRIDI-28120203801</v>
+      </c>
       <c r="K14" s="1"/>
       <c r="L14" s="4"/>
     </row>
@@ -7588,7 +7631,10 @@
       <c r="I15" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J15" s="1"/>
+      <c r="J15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MPPS VONDRUBHANGI-28120204501</v>
+      </c>
       <c r="K15" s="1"/>
       <c r="L15" s="4"/>
     </row>
@@ -7620,7 +7666,10 @@
       <c r="I16" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J16" s="1"/>
+      <c r="J16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MPPS KANASINGI-28120204701</v>
+      </c>
       <c r="K16" s="1"/>
       <c r="L16" s="4"/>
     </row>
@@ -7652,7 +7701,10 @@
       <c r="I17" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J17" s="1"/>
+      <c r="J17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MPPS MALLUGUDA-28120204901</v>
+      </c>
       <c r="K17" s="1"/>
       <c r="L17" s="4"/>
     </row>
@@ -7684,7 +7736,10 @@
       <c r="I18" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J18" s="1"/>
+      <c r="J18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MPPS IJJAKAI-28120205401</v>
+      </c>
       <c r="K18" s="1"/>
       <c r="L18" s="4"/>
     </row>
@@ -7716,7 +7771,10 @@
       <c r="I19" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J19" s="1"/>
+      <c r="J19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MPPS KONTESU-28120205601</v>
+      </c>
       <c r="K19" s="1"/>
       <c r="L19" s="4"/>
     </row>
@@ -7748,7 +7806,10 @@
       <c r="I20" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J20" s="1"/>
+      <c r="J20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MPPS MANTRAJOLA-28120206001</v>
+      </c>
       <c r="K20" s="1"/>
       <c r="L20" s="4"/>
     </row>
@@ -7780,7 +7841,10 @@
       <c r="I21" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J21" s="1"/>
+      <c r="J21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MPPS RAYAGADAJAMMU-28120206301</v>
+      </c>
       <c r="K21" s="1"/>
       <c r="L21" s="4"/>
     </row>
@@ -7812,7 +7876,10 @@
       <c r="I22" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J22" s="1"/>
+      <c r="J22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MPPS VAPPANGI-28120206701</v>
+      </c>
       <c r="K22" s="1"/>
       <c r="L22" s="4"/>
     </row>
@@ -7844,7 +7911,10 @@
       <c r="I23" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J23" s="1"/>
+      <c r="J23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MPPS KONDAVADA-28120206801</v>
+      </c>
       <c r="K23" s="1"/>
       <c r="L23" s="4"/>
     </row>
@@ -7876,7 +7946,10 @@
       <c r="I24" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J24" s="1"/>
+      <c r="J24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MPPS MORAMA-28120206903</v>
+      </c>
       <c r="K24" s="1"/>
       <c r="L24" s="4"/>
     </row>
@@ -7908,7 +7981,10 @@
       <c r="I25" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J25" s="1"/>
+      <c r="J25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MPPS SAVARAKOTAPADU-28120207001</v>
+      </c>
       <c r="K25" s="1"/>
       <c r="L25" s="4"/>
     </row>
@@ -7940,7 +8016,10 @@
       <c r="I26" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J26" s="1"/>
+      <c r="J26" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MPPS THATISEELA-28120207201</v>
+      </c>
       <c r="K26" s="1"/>
       <c r="L26" s="4"/>
     </row>
@@ -7972,7 +8051,10 @@
       <c r="I27" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J27" s="1"/>
+      <c r="J27" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MPPS DEPPIGUDA-28120207202</v>
+      </c>
       <c r="K27" s="1"/>
       <c r="L27" s="4"/>
     </row>
@@ -8004,7 +8086,10 @@
       <c r="I28" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J28" s="1"/>
+      <c r="J28" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MPPS KALIGOTTU-28120207301</v>
+      </c>
       <c r="K28" s="1"/>
       <c r="L28" s="4"/>
     </row>
@@ -8036,7 +8121,10 @@
       <c r="I29" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J29" s="1"/>
+      <c r="J29" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MPPS ELWINPETA-28120207501</v>
+      </c>
       <c r="K29" s="1"/>
       <c r="L29" s="4"/>
     </row>
@@ -8068,7 +8156,10 @@
       <c r="I30" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J30" s="1"/>
+      <c r="J30" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MPPS ELWINPETA PB COL-28120207502</v>
+      </c>
       <c r="K30" s="1"/>
       <c r="L30" s="4"/>
     </row>
@@ -8100,7 +8191,10 @@
       <c r="I31" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J31" s="1"/>
+      <c r="J31" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MPPS GADDI COL GLPURAM-28120207601</v>
+      </c>
       <c r="K31" s="1"/>
       <c r="L31" s="4"/>
     </row>
@@ -8132,7 +8226,10 @@
       <c r="I32" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J32" s="1"/>
+      <c r="J32" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MPPS VATHADA-28120207701</v>
+      </c>
       <c r="K32" s="1"/>
       <c r="L32" s="4"/>
     </row>
@@ -8164,7 +8261,10 @@
       <c r="I33" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J33" s="1"/>
+      <c r="J33" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MPPS CHINAGEESADA-28120208103</v>
+      </c>
       <c r="K33" s="1"/>
       <c r="L33" s="4"/>
     </row>
@@ -8196,7 +8296,10 @@
       <c r="I34" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J34" s="1"/>
+      <c r="J34" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MPPS NONDRUKONDA-28120208401</v>
+      </c>
       <c r="K34" s="1"/>
       <c r="L34" s="4"/>
     </row>
@@ -8228,7 +8331,10 @@
       <c r="I35" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J35" s="1"/>
+      <c r="J35" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MPPS SAMBUGUDA-28120208501</v>
+      </c>
       <c r="K35" s="1"/>
       <c r="L35" s="4"/>
     </row>
@@ -8260,7 +8366,10 @@
       <c r="I36" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J36" s="1"/>
+      <c r="J36" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MPPS RASABADI-28120208801</v>
+      </c>
       <c r="K36" s="1"/>
       <c r="L36" s="4"/>
     </row>
@@ -8292,7 +8401,10 @@
       <c r="I37" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J37" s="1"/>
+      <c r="J37" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MPPS SEEMALAVALASA-28120208802</v>
+      </c>
       <c r="K37" s="1"/>
       <c r="L37" s="4"/>
     </row>
@@ -8324,7 +8436,10 @@
       <c r="I38" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J38" s="1"/>
+      <c r="J38" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MPPS TANKU-28120208901</v>
+      </c>
       <c r="K38" s="1"/>
       <c r="L38" s="4"/>
     </row>
@@ -8356,7 +8471,10 @@
       <c r="I39" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J39" s="1"/>
+      <c r="J39" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MPPS JARNA-28120209201</v>
+      </c>
       <c r="K39" s="1"/>
       <c r="L39" s="4"/>
     </row>
@@ -8388,7 +8506,10 @@
       <c r="I40" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J40" s="1"/>
+      <c r="J40" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MPPS Y CHORUPALLI-28120209301</v>
+      </c>
       <c r="K40" s="1"/>
       <c r="L40" s="4"/>
     </row>
@@ -8420,7 +8541,10 @@
       <c r="I41" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J41" s="1"/>
+      <c r="J41" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MPPS ATCHABA-28120209602</v>
+      </c>
       <c r="K41" s="1"/>
       <c r="L41" s="4"/>
     </row>
@@ -8452,7 +8576,10 @@
       <c r="I42" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J42" s="1"/>
+      <c r="J42" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MPPS BAYYADA-28120209801</v>
+      </c>
       <c r="K42" s="1"/>
       <c r="L42" s="4"/>
     </row>
@@ -8484,7 +8611,10 @@
       <c r="I43" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J43" s="1"/>
+      <c r="J43" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MPPS GORADA-28120210001</v>
+      </c>
       <c r="K43" s="1"/>
       <c r="L43" s="4"/>
     </row>
@@ -8516,7 +8646,10 @@
       <c r="I44" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J44" s="1"/>
+      <c r="J44" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MPPS GOPALAPURAM-28120210210</v>
+      </c>
       <c r="K44" s="1"/>
       <c r="L44" s="4"/>
     </row>
@@ -8548,7 +8681,10 @@
       <c r="I45" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J45" s="1"/>
+      <c r="J45" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MPPS SADUNUGUDA-28120210401</v>
+      </c>
       <c r="K45" s="1"/>
       <c r="L45" s="4"/>
     </row>
@@ -8580,7 +8716,10 @@
       <c r="I46" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J46" s="1"/>
+      <c r="J46" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MPPS VANJARAPUGUDA-28120210501</v>
+      </c>
       <c r="K46" s="1"/>
       <c r="L46" s="4"/>
     </row>
@@ -8612,7 +8751,10 @@
       <c r="I47" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J47" s="1"/>
+      <c r="J47" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MPPS DIGUVAMANDA-28120210601</v>
+      </c>
       <c r="K47" s="1"/>
       <c r="L47" s="4"/>
     </row>
@@ -8644,7 +8786,10 @@
       <c r="I48" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J48" s="1"/>
+      <c r="J48" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MPPS REGIDI-28120210801</v>
+      </c>
       <c r="K48" s="1"/>
       <c r="L48" s="4"/>
     </row>
@@ -8676,7 +8821,10 @@
       <c r="I49" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J49" s="1"/>
+      <c r="J49" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MPPS DIGUVADERUVADA-28120211201</v>
+      </c>
       <c r="K49" s="1"/>
       <c r="L49" s="4"/>
     </row>
@@ -8708,7 +8856,10 @@
       <c r="I50" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J50" s="1"/>
+      <c r="J50" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MPPS JOGIPURAM-28120211701</v>
+      </c>
       <c r="K50" s="1"/>
       <c r="L50" s="4"/>
     </row>
@@ -8740,7 +8891,10 @@
       <c r="I51" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J51" s="1"/>
+      <c r="J51" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MPPS KONDAKUNERU-28120211801</v>
+      </c>
       <c r="K51" s="1"/>
       <c r="L51" s="4"/>
     </row>
@@ -8772,7 +8926,10 @@
       <c r="I52" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J52" s="1"/>
+      <c r="J52" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MPPS DUDDUKHALLU-28120212101</v>
+      </c>
       <c r="K52" s="1"/>
       <c r="L52" s="4"/>
     </row>
@@ -8804,7 +8961,10 @@
       <c r="I53" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J53" s="1"/>
+      <c r="J53" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MPPS BELLIDI-28120212201</v>
+      </c>
       <c r="K53" s="1"/>
       <c r="L53" s="4"/>
     </row>
@@ -8836,7 +8996,10 @@
       <c r="I54" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="1"/>
+      <c r="J54" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MPPS DADUPURAM-28120212202</v>
+      </c>
       <c r="K54" s="1"/>
       <c r="L54" s="4"/>
     </row>
@@ -8868,7 +9031,10 @@
       <c r="I55" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J55" s="1"/>
+      <c r="J55" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MPPS CHINTALAPADU-28120212301</v>
+      </c>
       <c r="K55" s="1"/>
       <c r="L55" s="4"/>
     </row>
@@ -8900,7 +9066,10 @@
       <c r="I56" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J56" s="1"/>
+      <c r="J56" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MPPS BUDDAMMAKHARJA-28120212302</v>
+      </c>
       <c r="K56" s="1"/>
       <c r="L56" s="4"/>
     </row>
@@ -8932,7 +9101,10 @@
       <c r="I57" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J57" s="1"/>
+      <c r="J57" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MPPS TIKKABAI-28120212401</v>
+      </c>
       <c r="K57" s="1"/>
       <c r="L57" s="4"/>
     </row>
@@ -8964,7 +9136,10 @@
       <c r="I58" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J58" s="1"/>
+      <c r="J58" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>AIDED P S KUKKIDI-28120202001</v>
+      </c>
       <c r="K58" s="1"/>
       <c r="L58" s="4"/>
     </row>
@@ -8996,7 +9171,10 @@
       <c r="I59" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J59" s="1"/>
+      <c r="J59" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>AIDED P S CHEMUDUGUDA-28120203401</v>
+      </c>
       <c r="K59" s="1"/>
       <c r="L59" s="4"/>
     </row>
@@ -9028,7 +9206,10 @@
       <c r="I60" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J60" s="1"/>
+      <c r="J60" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>AIDED PS PUTTAJAMMU-28120207102</v>
+      </c>
       <c r="K60" s="1"/>
       <c r="L60" s="4"/>
     </row>
@@ -9060,7 +9241,10 @@
       <c r="I61" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J61" s="1"/>
+      <c r="J61" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>AIDED ES CHINATALAGUDA ST-28120207603</v>
+      </c>
       <c r="K61" s="1"/>
       <c r="L61" s="4"/>
     </row>
@@ -9092,7 +9276,10 @@
       <c r="I62" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J62" s="1"/>
+      <c r="J62" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>AIDED PS P AMITI-28120210202</v>
+      </c>
       <c r="K62" s="1"/>
       <c r="L62" s="4"/>
     </row>
@@ -9124,7 +9311,10 @@
       <c r="I63" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J63" s="1"/>
+      <c r="J63" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>GPS THOTA-28120200301</v>
+      </c>
       <c r="K63" s="1"/>
       <c r="L63" s="4"/>
     </row>
@@ -9156,7 +9346,10 @@
       <c r="I64" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J64" s="1"/>
+      <c r="J64" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MPPS KALLITI-28120200502</v>
+      </c>
       <c r="K64" s="1"/>
       <c r="L64" s="4"/>
     </row>
@@ -9188,7 +9381,10 @@
       <c r="I65" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J65" s="1"/>
+      <c r="J65" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>GPS KEESARI-28120200701</v>
+      </c>
       <c r="K65" s="1"/>
       <c r="L65" s="4"/>
     </row>
@@ -9220,7 +9416,10 @@
       <c r="I66" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J66" s="1"/>
+      <c r="J66" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>GPS VANGARA-28120200901</v>
+      </c>
       <c r="K66" s="1"/>
       <c r="L66" s="4"/>
     </row>
@@ -9252,7 +9451,10 @@
       <c r="I67" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J67" s="1"/>
+      <c r="J67" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>GPS RELLA-28120201501</v>
+      </c>
       <c r="K67" s="1"/>
       <c r="L67" s="4"/>
     </row>
@@ -9284,7 +9486,10 @@
       <c r="I68" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J68" s="1"/>
+      <c r="J68" s="1" t="str">
+        <f t="shared" ref="J68:J131" si="1">C68&amp;"-"&amp;B68</f>
+        <v>GPS KOTHAGUDA-28120201801</v>
+      </c>
       <c r="K68" s="1"/>
       <c r="L68" s="4"/>
     </row>
@@ -9316,7 +9521,10 @@
       <c r="I69" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J69" s="1"/>
+      <c r="J69" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>AIDED PS TADIKONDA-28120202801</v>
+      </c>
       <c r="K69" s="1"/>
       <c r="L69" s="4"/>
     </row>
@@ -9348,7 +9556,10 @@
       <c r="I70" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J70" s="1"/>
+      <c r="J70" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>GPS PEDAKHARJA-28120203001</v>
+      </c>
       <c r="K70" s="1"/>
       <c r="L70" s="4"/>
     </row>
@@ -9380,7 +9591,10 @@
       <c r="I71" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="1"/>
+      <c r="J71" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>GPS K SIVADA-28120203201</v>
+      </c>
       <c r="K71" s="1"/>
       <c r="L71" s="4"/>
     </row>
@@ -9412,7 +9626,10 @@
       <c r="I72" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J72" s="1"/>
+      <c r="J72" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>GPS MULABINNIDI-28120203601</v>
+      </c>
       <c r="K72" s="1"/>
       <c r="L72" s="4"/>
     </row>
@@ -9444,7 +9661,10 @@
       <c r="I73" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J73" s="1"/>
+      <c r="J73" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>GPS THOLUKHARJA-28120203901</v>
+      </c>
       <c r="K73" s="1"/>
       <c r="L73" s="4"/>
     </row>
@@ -9476,7 +9696,10 @@
       <c r="I74" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J74" s="1"/>
+      <c r="J74" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>AIDED PS LUMBESU-28120204101</v>
+      </c>
       <c r="K74" s="1"/>
       <c r="L74" s="4"/>
     </row>
@@ -9508,7 +9731,10 @@
       <c r="I75" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J75" s="1"/>
+      <c r="J75" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>GPS CH BINNIDI-28120204601</v>
+      </c>
       <c r="K75" s="1"/>
       <c r="L75" s="4"/>
     </row>
@@ -9540,7 +9766,10 @@
       <c r="I76" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J76" s="1"/>
+      <c r="J76" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>GPS KONDUKUPPA-28120204801</v>
+      </c>
       <c r="K76" s="1"/>
       <c r="L76" s="4"/>
     </row>
@@ -9572,7 +9801,10 @@
       <c r="I77" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J77" s="1"/>
+      <c r="J77" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>GPS MULIGUDA-28120204902</v>
+      </c>
       <c r="K77" s="1"/>
       <c r="L77" s="4"/>
     </row>
@@ -9604,7 +9836,10 @@
       <c r="I78" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J78" s="1"/>
+      <c r="J78" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>GPS LADA-28120205001</v>
+      </c>
       <c r="K78" s="1"/>
       <c r="L78" s="4"/>
     </row>
@@ -9636,7 +9871,10 @@
       <c r="I79" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J79" s="1"/>
+      <c r="J79" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>GPS BEERUPADU-28120205201</v>
+      </c>
       <c r="K79" s="1"/>
       <c r="L79" s="4"/>
     </row>
@@ -9668,7 +9906,10 @@
       <c r="I80" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J80" s="1"/>
+      <c r="J80" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>GPS VADAJANGI-28120205501</v>
+      </c>
       <c r="K80" s="1"/>
       <c r="L80" s="4"/>
     </row>
@@ -9700,7 +9941,10 @@
       <c r="I81" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J81" s="1"/>
+      <c r="J81" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>GPS GADIVANKADHARA-28120206101</v>
+      </c>
       <c r="K81" s="1"/>
       <c r="L81" s="4"/>
     </row>
@@ -9732,7 +9976,10 @@
       <c r="I82" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J82" s="1"/>
+      <c r="J82" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>GPS KURASINGI-28120206501</v>
+      </c>
       <c r="K82" s="1"/>
       <c r="L82" s="4"/>
     </row>
@@ -9764,7 +10011,10 @@
       <c r="I83" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J83" s="1"/>
+      <c r="J83" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>GPS LAKKAGUDA-28120206901</v>
+      </c>
       <c r="K83" s="1"/>
       <c r="L83" s="4"/>
     </row>
@@ -9796,7 +10046,10 @@
       <c r="I84" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J84" s="1"/>
+      <c r="J84" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>GPS JK PADU COLNY-28120207002</v>
+      </c>
       <c r="K84" s="1"/>
       <c r="L84" s="4"/>
     </row>
@@ -9828,7 +10081,10 @@
       <c r="I85" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J85" s="1"/>
+      <c r="J85" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>GPS P JAMMUVALASA-28120207101</v>
+      </c>
       <c r="K85" s="1"/>
       <c r="L85" s="4"/>
     </row>
@@ -9860,7 +10116,10 @@
       <c r="I86" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J86" s="1"/>
+      <c r="J86" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>GPS ELWINPETA-28120207505</v>
+      </c>
       <c r="K86" s="1"/>
       <c r="L86" s="4"/>
     </row>
@@ -9892,7 +10151,10 @@
       <c r="I87" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J87" s="1"/>
+      <c r="J87" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>GPS GL PURAM-28120207602</v>
+      </c>
       <c r="K87" s="1"/>
       <c r="L87" s="4"/>
     </row>
@@ -9924,7 +10186,10 @@
       <c r="I88" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J88" s="1"/>
+      <c r="J88" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>GPS PENGUVA-28120208001</v>
+      </c>
       <c r="K88" s="1"/>
       <c r="L88" s="4"/>
     </row>
@@ -9956,7 +10221,10 @@
       <c r="I89" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J89" s="1"/>
+      <c r="J89" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>GPS PUSABADI-28120208701</v>
+      </c>
       <c r="K89" s="1"/>
       <c r="L89" s="4"/>
     </row>
@@ -9988,7 +10256,10 @@
       <c r="I90" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J90" s="1"/>
+      <c r="J90" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>GPS URITI-28120209101</v>
+      </c>
       <c r="K90" s="1"/>
       <c r="L90" s="4"/>
     </row>
@@ -10020,7 +10291,10 @@
       <c r="I91" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J91" s="1"/>
+      <c r="J91" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>GPS GEESADA-28120209501</v>
+      </c>
       <c r="K91" s="1"/>
       <c r="L91" s="4"/>
     </row>
@@ -10052,7 +10326,10 @@
       <c r="I92" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J92" s="1"/>
+      <c r="J92" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>GPS VALLADA-28120209901</v>
+      </c>
       <c r="K92" s="1"/>
       <c r="L92" s="4"/>
     </row>
@@ -10084,7 +10361,10 @@
       <c r="I93" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J93" s="1"/>
+      <c r="J93" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>AIDED PS KARIVALASA-28120210201</v>
+      </c>
       <c r="K93" s="1"/>
       <c r="L93" s="4"/>
     </row>
@@ -10116,7 +10396,10 @@
       <c r="I94" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J94" s="1"/>
+      <c r="J94" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>GPS BALESU-28120211001</v>
+      </c>
       <c r="K94" s="1"/>
       <c r="L94" s="4"/>
     </row>
@@ -10148,7 +10431,10 @@
       <c r="I95" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J95" s="1"/>
+      <c r="J95" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>GPS NELLIKIKKUVA-28120212001</v>
+      </c>
       <c r="K95" s="1"/>
       <c r="L95" s="4"/>
     </row>
@@ -10180,7 +10466,10 @@
       <c r="I96" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J96" s="1"/>
+      <c r="J96" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>GPS BODLAGUDA-28120212203</v>
+      </c>
       <c r="K96" s="1"/>
       <c r="L96" s="4"/>
     </row>
@@ -10212,7 +10501,10 @@
       <c r="I97" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J97" s="1"/>
+      <c r="J97" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>GPS MEDARAGANDA-28120212303</v>
+      </c>
       <c r="K97" s="1"/>
       <c r="L97" s="4"/>
     </row>
@@ -10244,7 +10536,10 @@
       <c r="I98" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J98" s="1"/>
+      <c r="J98" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>GUPS KEDARIPURAM-28120201204</v>
+      </c>
       <c r="K98" s="1"/>
       <c r="L98" s="4"/>
     </row>
@@ -10276,7 +10571,10 @@
       <c r="I99" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J99" s="1"/>
+      <c r="J99" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>GPSTW ADJ BHADRA-28120200201</v>
+      </c>
       <c r="K99" s="1"/>
       <c r="L99" s="4"/>
     </row>
@@ -10308,7 +10606,10 @@
       <c r="I100" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J100" s="1"/>
+      <c r="J100" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>GPSTW JAPAI-28120200401</v>
+      </c>
       <c r="K100" s="1"/>
       <c r="L100" s="4"/>
     </row>
@@ -10340,7 +10641,10 @@
       <c r="I101" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J101" s="1"/>
+      <c r="J101" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>GPSTW TIKKABAI-28120200402</v>
+      </c>
       <c r="K101" s="1"/>
       <c r="L101" s="4"/>
     </row>
@@ -10372,7 +10676,10 @@
       <c r="I102" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J102" s="1"/>
+      <c r="J102" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>GPSTW ITCHAPURAM-28120200403</v>
+      </c>
       <c r="K102" s="1"/>
       <c r="L102" s="4"/>
     </row>
@@ -10404,7 +10711,10 @@
       <c r="I103" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J103" s="1"/>
+      <c r="J103" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>GPSTW SANDHIGUDA-28120200903</v>
+      </c>
       <c r="K103" s="1"/>
       <c r="L103" s="4"/>
     </row>
@@ -10436,7 +10746,10 @@
       <c r="I104" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J104" s="1"/>
+      <c r="J104" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>GPSTW GUNADA-28120201101</v>
+      </c>
       <c r="K104" s="1"/>
       <c r="L104" s="4"/>
     </row>
@@ -10468,7 +10781,10 @@
       <c r="I105" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J105" s="1"/>
+      <c r="J105" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>GPSTW KORATIGUDA-28120201102</v>
+      </c>
       <c r="K105" s="1"/>
       <c r="L105" s="4"/>
     </row>
@@ -10500,7 +10816,10 @@
       <c r="I106" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J106" s="1"/>
+      <c r="J106" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>GPSTW SEEMALAGUDA-28120201201</v>
+      </c>
       <c r="K106" s="1"/>
       <c r="L106" s="4"/>
     </row>
@@ -10532,7 +10851,10 @@
       <c r="I107" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J107" s="1"/>
+      <c r="J107" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>GPSTW KEDARIPURAM COL-28120201202</v>
+      </c>
       <c r="K107" s="1"/>
       <c r="L107" s="4"/>
     </row>
@@ -10564,7 +10886,10 @@
       <c r="I108" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J108" s="1"/>
+      <c r="J108" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>GPSTW CHINTAMANUGUDA-28120201203</v>
+      </c>
       <c r="K108" s="1"/>
       <c r="L108" s="4"/>
     </row>
@@ -10596,7 +10921,10 @@
       <c r="I109" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J109" s="1"/>
+      <c r="J109" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>GPSTW KUMBAYAGUDA-28120201301</v>
+      </c>
       <c r="K109" s="1"/>
       <c r="L109" s="4"/>
     </row>
@@ -10628,7 +10956,10 @@
       <c r="I110" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J110" s="1"/>
+      <c r="J110" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>GPSTW NONDRUKONA-28120201302</v>
+      </c>
       <c r="K110" s="1"/>
       <c r="L110" s="4"/>
     </row>
@@ -10660,7 +10991,10 @@
       <c r="I111" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J111" s="1"/>
+      <c r="J111" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>GPSTW BASANGI-28120201702</v>
+      </c>
       <c r="K111" s="1"/>
       <c r="L111" s="4"/>
     </row>
@@ -10692,7 +11026,10 @@
       <c r="I112" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J112" s="1"/>
+      <c r="J112" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>GPSTW NIGARAM-28120201901</v>
+      </c>
       <c r="K112" s="1"/>
       <c r="L112" s="4"/>
     </row>
@@ -10724,7 +11061,10 @@
       <c r="I113" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="J113" s="1"/>
+      <c r="J113" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>GPSTW CHINTAMANUGUD-28120202002</v>
+      </c>
       <c r="K113" s="1"/>
       <c r="L113" s="4"/>
     </row>
@@ -10756,7 +11096,10 @@
       <c r="I114" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="J114" s="1"/>
+      <c r="J114" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>GPS TW RUSHINI COLNY-28120202003</v>
+      </c>
       <c r="K114" s="1"/>
       <c r="L114" s="4"/>
     </row>
@@ -10788,7 +11131,10 @@
       <c r="I115" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J115" s="1"/>
+      <c r="J115" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>GPSTW BODDIDI-28120202101</v>
+      </c>
       <c r="K115" s="1"/>
       <c r="L115" s="4"/>
     </row>
@@ -10820,7 +11166,10 @@
       <c r="I116" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J116" s="1"/>
+      <c r="J116" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>GPSTW CHAPPAGUDA-28120202201</v>
+      </c>
       <c r="K116" s="1"/>
       <c r="L116" s="4"/>
     </row>
@@ -10852,7 +11201,10 @@
       <c r="I117" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J117" s="1"/>
+      <c r="J117" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>GPSTW CH J BHADRA-28120202501</v>
+      </c>
       <c r="K117" s="1"/>
       <c r="L117" s="4"/>
     </row>
@@ -10884,7 +11236,10 @@
       <c r="I118" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J118" s="1"/>
+      <c r="J118" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>GPSTW SIKHARAPAI-28120202601</v>
+      </c>
       <c r="K118" s="1"/>
       <c r="L118" s="4"/>
     </row>
@@ -10916,7 +11271,10 @@
       <c r="I119" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J119" s="1"/>
+      <c r="J119" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>GPSTW VAMASI-28120202701</v>
+      </c>
       <c r="K119" s="1"/>
       <c r="L119" s="4"/>
     </row>
@@ -10948,7 +11306,10 @@
       <c r="I120" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J120" s="1"/>
+      <c r="J120" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>GPSTW Y TADI KONDA-28120202802</v>
+      </c>
       <c r="K120" s="1"/>
       <c r="L120" s="4"/>
     </row>
@@ -10980,7 +11341,10 @@
       <c r="I121" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J121" s="1"/>
+      <c r="J121" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>GPSTW BATUGUDABA-28120203101</v>
+      </c>
       <c r="K121" s="1"/>
       <c r="L121" s="4"/>
     </row>
@@ -11012,7 +11376,10 @@
       <c r="I122" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J122" s="1"/>
+      <c r="J122" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>GPSTW PEDDAGUDA-28120203301</v>
+      </c>
       <c r="K122" s="1"/>
       <c r="L122" s="4"/>
     </row>
@@ -11044,7 +11411,10 @@
       <c r="I123" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J123" s="1"/>
+      <c r="J123" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>GPSTW SIKALABHAI-28120203302</v>
+      </c>
       <c r="K123" s="1"/>
       <c r="L123" s="4"/>
     </row>
@@ -11076,7 +11446,10 @@
       <c r="I124" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J124" s="1"/>
+      <c r="J124" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>GPSTW DERUGONDA-28120203303</v>
+      </c>
       <c r="K124" s="1"/>
       <c r="L124" s="4"/>
     </row>
@@ -11108,7 +11481,10 @@
       <c r="I125" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J125" s="1"/>
+      <c r="J125" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>GPS TW MURADA-28120203502</v>
+      </c>
       <c r="K125" s="1"/>
       <c r="L125" s="4"/>
     </row>
@@ -11140,7 +11516,10 @@
       <c r="I126" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J126" s="1"/>
+      <c r="J126" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>GPS TW GAJULAGUDA-28120203702</v>
+      </c>
       <c r="K126" s="1"/>
       <c r="L126" s="4"/>
     </row>
@@ -11172,7 +11551,10 @@
       <c r="I127" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J127" s="1"/>
+      <c r="J127" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>GPSTW GOWDUGUDA-28120204001</v>
+      </c>
       <c r="K127" s="1"/>
       <c r="L127" s="4"/>
     </row>
@@ -11204,7 +11586,10 @@
       <c r="I128" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J128" s="1"/>
+      <c r="J128" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>GPSTW LAPPITI-28120204201</v>
+      </c>
       <c r="K128" s="1"/>
       <c r="L128" s="4"/>
     </row>
@@ -11236,7 +11621,10 @@
       <c r="I129" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J129" s="1"/>
+      <c r="J129" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>GPSTW VADABAI-28120204401</v>
+      </c>
       <c r="K129" s="1"/>
       <c r="L129" s="4"/>
     </row>
@@ -11268,7 +11656,10 @@
       <c r="I130" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="J130" s="1"/>
+      <c r="J130" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>GPSTW KONDABINNIDI-28120204602</v>
+      </c>
       <c r="K130" s="1"/>
       <c r="L130" s="4"/>
     </row>
@@ -11300,7 +11691,10 @@
       <c r="I131" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J131" s="1"/>
+      <c r="J131" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>GPSTW KESARIGUDA-28120204702</v>
+      </c>
       <c r="K131" s="1"/>
       <c r="L131" s="4"/>
     </row>
@@ -11332,7 +11726,10 @@
       <c r="I132" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="J132" s="1"/>
+      <c r="J132" s="1" t="str">
+        <f t="shared" ref="J132:J181" si="2">C132&amp;"-"&amp;B132</f>
+        <v>GPS TW DABBALAGUDA-28120205203</v>
+      </c>
       <c r="K132" s="1"/>
       <c r="L132" s="4"/>
     </row>
@@ -11364,7 +11761,10 @@
       <c r="I133" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J133" s="1"/>
+      <c r="J133" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>GPS TW KITHALAMBA-28120205701</v>
+      </c>
       <c r="K133" s="1"/>
       <c r="L133" s="4"/>
     </row>
@@ -11396,7 +11796,10 @@
       <c r="I134" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J134" s="1"/>
+      <c r="J134" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>GPSTW GULLALANKA-28120205801</v>
+      </c>
       <c r="K134" s="1"/>
       <c r="L134" s="4"/>
     </row>
@@ -11428,7 +11831,10 @@
       <c r="I135" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J135" s="1"/>
+      <c r="J135" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>GPSTW MULAJAMMU-28120206401</v>
+      </c>
       <c r="K135" s="1"/>
       <c r="L135" s="4"/>
     </row>
@@ -11460,7 +11866,10 @@
       <c r="I136" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J136" s="1"/>
+      <c r="J136" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>GPSTW THAMBAMGUDA-28120207103</v>
+      </c>
       <c r="K136" s="1"/>
       <c r="L136" s="4"/>
     </row>
@@ -11492,7 +11901,10 @@
       <c r="I137" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J137" s="1"/>
+      <c r="J137" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>GPSTW PILLIGUDA-28120207203</v>
+      </c>
       <c r="K137" s="1"/>
       <c r="L137" s="4"/>
     </row>
@@ -11524,7 +11936,10 @@
       <c r="I138" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J138" s="1"/>
+      <c r="J138" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>GPSTW S KALIGOTTU-28120207302</v>
+      </c>
       <c r="K138" s="1"/>
       <c r="L138" s="4"/>
     </row>
@@ -11556,7 +11971,10 @@
       <c r="I139" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J139" s="1"/>
+      <c r="J139" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>GPSTW REGULAPADU-28120207401</v>
+      </c>
       <c r="K139" s="1"/>
       <c r="L139" s="4"/>
     </row>
@@ -11588,7 +12006,10 @@
       <c r="I140" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J140" s="1"/>
+      <c r="J140" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>GPSTW KOSAGUDA-28120207504</v>
+      </c>
       <c r="K140" s="1"/>
       <c r="L140" s="4"/>
     </row>
@@ -11620,7 +12041,10 @@
       <c r="I141" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J141" s="1"/>
+      <c r="J141" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>GPSTW PULIGUDA-28120207702</v>
+      </c>
       <c r="K141" s="1"/>
       <c r="L141" s="4"/>
     </row>
@@ -11652,7 +12076,10 @@
       <c r="I142" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J142" s="1"/>
+      <c r="J142" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>GPS TW MORAMMAGUDA-28120207703</v>
+      </c>
       <c r="K142" s="1"/>
       <c r="L142" s="4"/>
     </row>
@@ -11684,7 +12111,10 @@
       <c r="I143" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J143" s="1"/>
+      <c r="J143" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>GPSTW KUDDA-28120207901</v>
+      </c>
       <c r="K143" s="1"/>
       <c r="L143" s="4"/>
     </row>
@@ -11716,7 +12146,10 @@
       <c r="I144" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="J144" s="1"/>
+      <c r="J144" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>GPSTW PEDARAVIKONA-28120208201</v>
+      </c>
       <c r="K144" s="1"/>
       <c r="L144" s="4"/>
     </row>
@@ -11748,7 +12181,10 @@
       <c r="I145" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J145" s="1"/>
+      <c r="J145" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>GPSTW CHINARAVIKONA-28120208301</v>
+      </c>
       <c r="K145" s="1"/>
       <c r="L145" s="4"/>
     </row>
@@ -11780,7 +12216,10 @@
       <c r="I146" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J146" s="1"/>
+      <c r="J146" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>GPSTW SEEMALAVALASA-28120208803</v>
+      </c>
       <c r="K146" s="1"/>
       <c r="L146" s="4"/>
     </row>
@@ -11812,7 +12251,10 @@
       <c r="I147" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="J147" s="1"/>
+      <c r="J147" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>GPSTW SRIRANGAPADU-28120208804</v>
+      </c>
       <c r="K147" s="1"/>
       <c r="L147" s="4"/>
     </row>
@@ -11844,7 +12286,10 @@
       <c r="I148" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J148" s="1"/>
+      <c r="J148" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>GPSTW CHINAVANKADHARA-28120209001</v>
+      </c>
       <c r="K148" s="1"/>
       <c r="L148" s="4"/>
     </row>
@@ -11876,7 +12321,10 @@
       <c r="I149" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J149" s="1"/>
+      <c r="J149" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>GPSTW CHORUPALLE-28120209302</v>
+      </c>
       <c r="K149" s="1"/>
       <c r="L149" s="4"/>
     </row>
@@ -11908,7 +12356,10 @@
       <c r="I150" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J150" s="1"/>
+      <c r="J150" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>GPSTW BABBIDI-28120209401</v>
+      </c>
       <c r="K150" s="1"/>
       <c r="L150" s="4"/>
     </row>
@@ -11940,7 +12391,10 @@
       <c r="I151" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J151" s="1"/>
+      <c r="J151" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>GPSTW KUSA-28120209701</v>
+      </c>
       <c r="K151" s="1"/>
       <c r="L151" s="4"/>
     </row>
@@ -11972,7 +12426,10 @@
       <c r="I152" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J152" s="1"/>
+      <c r="J152" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>GPSTW P AMITI COL-28120210203</v>
+      </c>
       <c r="K152" s="1"/>
       <c r="L152" s="4"/>
     </row>
@@ -12004,7 +12461,10 @@
       <c r="I153" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J153" s="1"/>
+      <c r="J153" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>GPSTW KUDDAPAVALASA-28120210301</v>
+      </c>
       <c r="K153" s="1"/>
       <c r="L153" s="4"/>
     </row>
@@ -12036,7 +12496,10 @@
       <c r="I154" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J154" s="1"/>
+      <c r="J154" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>GPSTW VANAKABADI-28120211301</v>
+      </c>
       <c r="K154" s="1"/>
       <c r="L154" s="4"/>
     </row>
@@ -12068,7 +12531,10 @@
       <c r="I155" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J155" s="1"/>
+      <c r="J155" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>GPSTW GEDRAJOLA-28120211401</v>
+      </c>
       <c r="K155" s="1"/>
       <c r="L155" s="4"/>
     </row>
@@ -12100,7 +12566,10 @@
       <c r="I156" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J156" s="1"/>
+      <c r="J156" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>GPS TW VANDIDI-28120211501</v>
+      </c>
       <c r="K156" s="1"/>
       <c r="L156" s="4"/>
     </row>
@@ -12132,7 +12601,10 @@
       <c r="I157" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J157" s="1"/>
+      <c r="J157" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>GPSTW DONGARAKIKKUVA-28120211601</v>
+      </c>
       <c r="K157" s="1"/>
       <c r="L157" s="4"/>
     </row>
@@ -12164,7 +12636,10 @@
       <c r="I158" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J158" s="1"/>
+      <c r="J158" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>GPSTW VADAPUTTI-28120211901</v>
+      </c>
       <c r="K158" s="1"/>
       <c r="L158" s="4"/>
     </row>
@@ -12196,7 +12671,10 @@
       <c r="I159" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J159" s="1"/>
+      <c r="J159" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>GPSTW DORAKIKKUVA-28120212103</v>
+      </c>
       <c r="K159" s="1"/>
       <c r="L159" s="4"/>
     </row>
@@ -12228,7 +12706,10 @@
       <c r="I160" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J160" s="1"/>
+      <c r="J160" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>GPSTW KOTHAVALASA-28120212107</v>
+      </c>
       <c r="K160" s="1"/>
       <c r="L160" s="4"/>
     </row>
@@ -12260,7 +12741,10 @@
       <c r="I161" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J161" s="1"/>
+      <c r="J161" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>GPSTW LOVA LAKSHMIPURAM-28120212205</v>
+      </c>
       <c r="K161" s="1"/>
       <c r="L161" s="4"/>
     </row>
@@ -12292,7 +12776,10 @@
       <c r="I162" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J162" s="1"/>
+      <c r="J162" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>GPSTW MALLUGUDA-28120212402</v>
+      </c>
       <c r="K162" s="1"/>
       <c r="L162" s="4"/>
     </row>
@@ -12324,7 +12811,10 @@
       <c r="I163" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J163" s="1"/>
+      <c r="J163" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>GTWAS KOSANGIBHADRA-28120201603</v>
+      </c>
       <c r="K163" s="1"/>
       <c r="L163" s="4"/>
     </row>
@@ -12356,7 +12846,10 @@
       <c r="I164" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J164" s="1"/>
+      <c r="J164" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>GTWAS BEERUPADU-28120205202</v>
+      </c>
       <c r="K164" s="1"/>
       <c r="L164" s="4"/>
     </row>
@@ -12388,7 +12881,10 @@
       <c r="I165" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J165" s="1"/>
+      <c r="J165" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>GTWAS GORADA-28120210003</v>
+      </c>
       <c r="K165" s="1"/>
       <c r="L165" s="4"/>
     </row>
@@ -12420,7 +12916,10 @@
       <c r="I166" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J166" s="2"/>
+      <c r="J166" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>APTWRSBOYS BHADRAGIRI-28120207506</v>
+      </c>
       <c r="K166" s="2"/>
       <c r="L166" s="3"/>
     </row>
@@ -12452,7 +12951,10 @@
       <c r="I167" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J167" s="1"/>
+      <c r="J167" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>APTWRSGIRLS BHADRAGIRI-28120207507</v>
+      </c>
       <c r="K167" s="1"/>
       <c r="L167" s="4"/>
     </row>
@@ -12484,7 +12986,10 @@
       <c r="I168" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J168" s="1"/>
+      <c r="J168" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>ZPHS GLPURAM-28120207604</v>
+      </c>
       <c r="K168" s="1"/>
       <c r="L168" s="4"/>
     </row>
@@ -12516,7 +13021,10 @@
       <c r="I169" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J169" s="1"/>
+      <c r="J169" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>GTWAS KEDARIPURAM COL-28120201205</v>
+      </c>
       <c r="K169" s="1"/>
       <c r="L169" s="4"/>
     </row>
@@ -12548,7 +13056,10 @@
       <c r="I170" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J170" s="1"/>
+      <c r="J170" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>GTWAS KOTHAGUDA-28120201803</v>
+      </c>
       <c r="K170" s="1"/>
       <c r="L170" s="4"/>
     </row>
@@ -12580,7 +13091,10 @@
       <c r="I171" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J171" s="1"/>
+      <c r="J171" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>GTWAS TADIKONDA-28120202803</v>
+      </c>
       <c r="K171" s="1"/>
       <c r="L171" s="4"/>
     </row>
@@ -12612,7 +13126,10 @@
       <c r="I172" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J172" s="1"/>
+      <c r="J172" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>GTWAS BHADRAGIRI-28120207615</v>
+      </c>
       <c r="K172" s="1"/>
       <c r="L172" s="4"/>
     </row>
@@ -12644,7 +13161,10 @@
       <c r="I173" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J173" s="1"/>
+      <c r="J173" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>GTWASGIRLS P AMITI-28120210205</v>
+      </c>
       <c r="K173" s="1"/>
       <c r="L173" s="4"/>
     </row>
@@ -12676,7 +13196,10 @@
       <c r="I174" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J174" s="1"/>
+      <c r="J174" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>GTWAHSGIRLS REGIDI-28120210804</v>
+      </c>
       <c r="K174" s="1"/>
       <c r="L174" s="4"/>
     </row>
@@ -12708,7 +13231,10 @@
       <c r="I175" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J175" s="1"/>
+      <c r="J175" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>GTWAS DUDDUKHALLU-28120212104</v>
+      </c>
       <c r="K175" s="1"/>
       <c r="L175" s="4"/>
     </row>
@@ -12740,7 +13266,10 @@
       <c r="I176" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J176" s="1"/>
+      <c r="J176" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>GTWAS DORAJAMMU-28120212206</v>
+      </c>
       <c r="K176" s="1"/>
       <c r="L176" s="4"/>
     </row>
@@ -12772,7 +13301,10 @@
       <c r="I177" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J177" s="1"/>
+      <c r="J177" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>GTWAS TIKKABAI-28120212403</v>
+      </c>
       <c r="K177" s="1"/>
       <c r="L177" s="4"/>
     </row>
@@ -12804,7 +13336,10 @@
       <c r="I178" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J178" s="1"/>
+      <c r="J178" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>APTWREIS EKALAVYA MDEL RESIDENTIAL SCHOOL-28120207003</v>
+      </c>
       <c r="K178" s="1"/>
       <c r="L178" s="4"/>
     </row>
@@ -12836,7 +13371,10 @@
       <c r="I179" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="J179" s="1"/>
+      <c r="J179" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>KGBV G.L.PURAM-28120207607</v>
+      </c>
       <c r="K179" s="1"/>
       <c r="L179" s="4"/>
     </row>
@@ -12868,7 +13406,10 @@
       <c r="I180" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J180" s="1"/>
+      <c r="J180" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>SARASWATHI VIDYA NIKETAN-28120207608</v>
+      </c>
       <c r="K180" s="1"/>
       <c r="L180" s="4"/>
     </row>
@@ -12900,13 +13441,16 @@
       <c r="I181" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J181" s="1"/>
+      <c r="J181" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>NEW LIFE MISSION UP SCHOOL-28120207617</v>
+      </c>
       <c r="K181" s="1"/>
       <c r="L181" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:L181"/>
-  <sortState ref="B3:I181">
+  <autoFilter ref="A2:L181" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:I181">
     <sortCondition ref="D3:D181"/>
     <sortCondition ref="E3:E181"/>
   </sortState>

--- a/DATABASE/SCHOOLS.xlsx
+++ b/DATABASE/SCHOOLS.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\docs\DATABASE\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AD4BF6D-3CE1-4507-94F6-2EF11AC20A83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -25,7 +19,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId5"/>
+    <pivotCache cacheId="2" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -677,7 +671,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1360,7 +1354,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="MEO G L PURAM" refreshedDate="44875.548561226853" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="179" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="MEO G L PURAM" refreshedDate="44875.548561226853" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="179">
   <cacheSource type="worksheet">
     <worksheetSource ref="A2:I181" sheet="EMS____02_11_2022_12_33_46_PM_R"/>
   </cacheSource>
@@ -3578,7 +3572,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B191" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
@@ -4381,7 +4375,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:F18" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
@@ -4730,7 +4724,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:F13" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
@@ -4877,7 +4871,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -4929,7 +4923,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -5123,14 +5117,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:B191"/>
   <sheetViews>
     <sheetView topLeftCell="A133" workbookViewId="0">
@@ -6661,7 +6655,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6924,7 +6918,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7115,14 +7109,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:L181"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A146" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A181"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A128" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A128" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13449,8 +13443,8 @@
       <c r="L181" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:L181" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:I181">
+  <autoFilter ref="A2:L181"/>
+  <sortState ref="B3:I181">
     <sortCondition ref="D3:D181"/>
     <sortCondition ref="E3:E181"/>
   </sortState>

--- a/DATABASE/SCHOOLS.xlsx
+++ b/DATABASE/SCHOOLS.xlsx
@@ -19,7 +19,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -3572,7 +3572,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B191" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
@@ -4375,7 +4375,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:F18" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
@@ -4724,7 +4724,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:F13" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
@@ -7115,8 +7115,8 @@
   </sheetPr>
   <dimension ref="A1:L181"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A128" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A128" sqref="A1:XFD1048576"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
